--- a/VersionRecords/Version online/版本Bug和特性计划及评审表_极光组v5.3.6_极光组.xlsx
+++ b/VersionRecords/Version online/版本Bug和特性计划及评审表_极光组v5.3.6_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" tabRatio="710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -1285,6 +1285,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,21 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1770,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6655,7 +6655,7 @@
       <c r="D2" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="81" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="72" t="s">
@@ -6670,7 +6670,7 @@
       <c r="I2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="82" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="72"/>
@@ -6683,7 +6683,7 @@
       <c r="N2" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="82" t="s">
         <v>153</v>
       </c>
       <c r="P2" s="72"/>
@@ -6701,7 +6701,7 @@
       <c r="D3" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="81" t="s">
         <v>154</v>
       </c>
       <c r="F3" s="72" t="s">
@@ -6729,31 +6729,31 @@
       <c r="N3" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="82" t="s">
         <v>158</v>
       </c>
       <c r="P3" s="72"/>
       <c r="Q3" s="72"/>
       <c r="R3" s="72"/>
     </row>
-    <row r="4" spans="1:18" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:18" s="80" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="82" t="s">
         <v>171</v>
       </c>
       <c r="F4" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="78" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="72" t="s">
@@ -6762,20 +6762,20 @@
       <c r="I4" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="82" t="s">
         <v>176</v>
       </c>
       <c r="P4" s="36"/>
@@ -6809,19 +6809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6859,8 +6859,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6872,8 +6872,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6885,8 +6885,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6898,8 +6898,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6911,8 +6911,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6924,8 +6924,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6937,8 +6937,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6950,8 +6950,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7012,36 +7012,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7353,36 +7353,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7667,36 +7667,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -8010,36 +8010,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
